--- a/_PJ/20241114_1113-山鹿市 _ がん検診等希望調査票/令和７年度希望調査対象者名簿一覧/02_本番データ/■名簿振り分け表.xlsx
+++ b/_PJ/20241114_1113-山鹿市 _ がん検診等希望調査票/令和７年度希望調査対象者名簿一覧/02_本番データ/■名簿振り分け表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\【Git】ShimodaPrint\_PJ\20241114_1113-山鹿市 _ がん検診等希望調査票\令和７年度希望調査対象者名簿一覧\02_本番データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616F179E-A4FA-4240-A8D6-D58F64A66BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237AC0D8-08F4-4FA7-B445-4897B138B72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,9 +620,6 @@
     <t>0085-9-50</t>
   </si>
   <si>
-    <t>鹿本郵便局分　〒861-06</t>
-  </si>
-  <si>
     <t>0086-1-01</t>
   </si>
   <si>
@@ -674,6 +671,16 @@
   </si>
   <si>
     <t>Count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菊鹿郵便局分　〒861-06</t>
+    <rPh sb="0" eb="1">
+      <t>キク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ユウビンキョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1144,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:N95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1179,16 +1186,16 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3</v>
@@ -3224,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>176</v>
@@ -3248,13 +3255,13 @@
         <v>4</v>
       </c>
       <c r="D89" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="G89" s="3">
         <v>450</v>
@@ -3272,13 +3279,13 @@
         <v>4</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E90" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="G90" s="3">
         <v>450</v>
@@ -3296,13 +3303,13 @@
         <v>4</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E91" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="G91" s="3">
         <v>450</v>
@@ -3320,13 +3327,13 @@
         <v>4</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E92" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="G92" s="3">
         <v>450</v>
@@ -3344,13 +3351,13 @@
         <v>4</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E93" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="G93" s="3">
         <v>450</v>
@@ -3368,13 +3375,13 @@
         <v>4</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="E94" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F94" s="9" t="s">
         <v>189</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="G94" s="10">
         <v>129</v>
